--- a/Load/ontology/Gates/PROVIDE/doc/PROVIDE_lab_test_template_non-microbiology.xlsx
+++ b/Load/ontology/Gates/PROVIDE/doc/PROVIDE_lab_test_template_non-microbiology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshahsimpson/Documents/Git/ApiCommonData/Load/ontology/Gates/PROVIDE/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9225D8-A50B-904F-A3C0-A716E5201060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEFA6B-0365-814A-AB20-694C5A3DD894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26340" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23600" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
@@ -1717,7 +1717,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
+      <selection pane="bottomRight" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
